--- a/Datasets/Control_DB.xlsx
+++ b/Datasets/Control_DB.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio\Desktop\H.U.C.A. LABORATORIO\1. Proyectos Tesis Doctoral\PD &amp; CANCER\Brain communications\Data availability\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E73290-0EE0-426B-A1C4-F910F9D3B250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B99D2769-7C09-4D95-9191-DA8A87FC8846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="CONTROLES" sheetId="1" r:id="rId1"/>
+    <sheet name="Control" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CONTROLES!$A$1:$Z$1072</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Control!$A$1:$Z$1072</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <extLst>
@@ -979,7 +979,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="A1:B1048576"/>
+      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
